--- a/SimulationStudyData/Dataset2_zsim.xlsx
+++ b/SimulationStudyData/Dataset2_zsim.xlsx
@@ -363,12 +363,12 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -393,7 +393,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -413,32 +413,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -448,7 +448,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -458,42 +458,42 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -503,12 +503,12 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -523,7 +523,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -538,17 +538,17 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -588,7 +588,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -598,7 +598,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -633,7 +633,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -658,7 +658,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -703,12 +703,12 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -723,7 +723,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -733,17 +733,17 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
@@ -778,12 +778,12 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -798,7 +798,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -808,7 +808,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -818,12 +818,12 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -838,7 +838,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -848,7 +848,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -863,12 +863,12 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -878,17 +878,17 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
@@ -913,7 +913,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
@@ -923,17 +923,17 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -948,12 +948,12 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123">
@@ -963,7 +963,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -978,7 +978,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -988,7 +988,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130">
@@ -998,7 +998,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1008,7 +1008,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -1038,7 +1038,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -1053,12 +1053,12 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1068,17 +1068,17 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1093,7 +1093,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
@@ -1128,22 +1128,22 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -1158,7 +1158,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -1168,12 +1168,12 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -1183,12 +1183,12 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -1203,17 +1203,17 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -1228,32 +1228,32 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -1273,12 +1273,12 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -1293,27 +1293,27 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
